--- a/Participation/R/output/scenarios/scenario_heatwave_delta_pp.xlsx
+++ b/Participation/R/output/scenarios/scenario_heatwave_delta_pp.xlsx
@@ -404,7 +404,7 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.1860081300837424</v>
+        <v>0.8420217315116635</v>
       </c>
     </row>
     <row r="3">
@@ -424,7 +424,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.5218640223310311</v>
+        <v>0.6658798353014417</v>
       </c>
     </row>
     <row r="4">
@@ -444,7 +444,7 @@
         </is>
       </c>
       <c r="D4">
-        <v>3.085860790581879</v>
+        <v>-1.637924496579532</v>
       </c>
     </row>
     <row r="5">
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="D5">
-        <v>-2.396526724317455</v>
+        <v>0.04077744286114376</v>
       </c>
     </row>
   </sheetData>
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="D2">
-        <v>-1.481090299942112</v>
+        <v>0.7946191895076504</v>
       </c>
     </row>
     <row r="3">
@@ -535,11 +535,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NANC</t>
+          <t>CMCK</t>
         </is>
       </c>
       <c r="D3">
-        <v>0.6916784406841868</v>
+        <v>0.07714529784904681</v>
       </c>
     </row>
     <row r="4">
@@ -555,11 +555,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CMCK</t>
+          <t>PSDN</t>
         </is>
       </c>
       <c r="D4">
-        <v>0.5242196953044522</v>
+        <v>-0.02378994001972857</v>
       </c>
     </row>
     <row r="5">
@@ -575,11 +575,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PSDN</t>
+          <t>NANC</t>
         </is>
       </c>
       <c r="D5">
-        <v>0.07751810402632613</v>
+        <v>-0.004835425633124488</v>
       </c>
     </row>
     <row r="6">
@@ -595,11 +595,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BTNA</t>
+          <t>YTNA</t>
         </is>
       </c>
       <c r="D6">
-        <v>0.001000341457436525</v>
+        <v>-0.0007037137321094702</v>
       </c>
     </row>
     <row r="7">
@@ -615,11 +615,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>YTNA</t>
+          <t>BTNA</t>
         </is>
       </c>
       <c r="D7">
-        <v>0.0006655883859682434</v>
+        <v>-0.000413676460070682</v>
       </c>
     </row>
     <row r="8">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="D8">
-        <v>-0.8542641474505674</v>
+        <v>0.4677209325693377</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.3661397697134933</v>
+        <v>0.08256122162610449</v>
       </c>
     </row>
     <row r="10">
@@ -675,11 +675,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CMCK</t>
+          <t>ALBC</t>
         </is>
       </c>
       <c r="D10">
-        <v>0.08387355408882666</v>
+        <v>0.06787249998740512</v>
       </c>
     </row>
     <row r="11">
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="D11">
-        <v>-0.06065611812266503</v>
+        <v>0.03541045308166485</v>
       </c>
     </row>
     <row r="12">
@@ -715,11 +715,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ALBC</t>
+          <t>CMCK</t>
         </is>
       </c>
       <c r="D12">
-        <v>-0.05606697344989593</v>
+        <v>0.01497687183751803</v>
       </c>
     </row>
     <row r="13">
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="D13">
-        <v>-0.00089010711022703</v>
+        <v>-0.002662143800589902</v>
       </c>
     </row>
     <row r="14">
@@ -755,11 +755,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NANC</t>
+          <t>PSDN</t>
         </is>
       </c>
       <c r="D14">
-        <v>2.266570229059556</v>
+        <v>-2.823364472620073</v>
       </c>
     </row>
     <row r="15">
@@ -775,11 +775,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PSDN</t>
+          <t>NANC</t>
         </is>
       </c>
       <c r="D15">
-        <v>0.9237446739390281</v>
+        <v>1.063912001759148</v>
       </c>
     </row>
     <row r="16">
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="D16">
-        <v>-0.06708651729095158</v>
+        <v>0.1128103825689321</v>
       </c>
     </row>
     <row r="17">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="D17">
-        <v>-0.01992418930907031</v>
+        <v>0.007107748142713092</v>
       </c>
     </row>
     <row r="18">
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="D18">
-        <v>-0.01744340581668084</v>
+        <v>0.001609843569748014</v>
       </c>
     </row>
     <row r="19">
@@ -855,11 +855,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NANC</t>
+          <t>MSQD</t>
         </is>
       </c>
       <c r="D19">
-        <v>-2.193188362338224</v>
+        <v>0.2968494279171272</v>
       </c>
     </row>
     <row r="20">
@@ -875,11 +875,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MSQD</t>
+          <t>JMCK</t>
         </is>
       </c>
       <c r="D20">
-        <v>-0.4534020610894501</v>
+        <v>-0.1522298828532085</v>
       </c>
     </row>
     <row r="21">
@@ -895,11 +895,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CMCK</t>
+          <t>NANC</t>
         </is>
       </c>
       <c r="D21">
-        <v>0.3692690540808355</v>
+        <v>-0.1443805310937636</v>
       </c>
     </row>
     <row r="22">
@@ -915,11 +915,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>JMCK</t>
+          <t>CMCK</t>
         </is>
       </c>
       <c r="D22">
-        <v>-0.09470298525662939</v>
+        <v>0.03538881546943208</v>
       </c>
     </row>
     <row r="23">
@@ -939,7 +939,7 @@
         </is>
       </c>
       <c r="D23">
-        <v>-0.02450236971398446</v>
+        <v>0.005149613421555951</v>
       </c>
     </row>
   </sheetData>
@@ -990,11 +990,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SBA</t>
+          <t>SFA</t>
         </is>
       </c>
       <c r="D2">
-        <v>-0.6897476471099659</v>
+        <v>0.27781457089155</v>
       </c>
     </row>
     <row r="3">
@@ -1010,11 +1010,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LAA</t>
+          <t>SBA</t>
         </is>
       </c>
       <c r="D3">
-        <v>0.4549857324473952</v>
+        <v>0.2237271605509288</v>
       </c>
     </row>
     <row r="4">
@@ -1030,11 +1030,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MNA</t>
+          <t>LAA</t>
         </is>
       </c>
       <c r="D4">
-        <v>0.2308715241649689</v>
+        <v>0.1998890951281106</v>
       </c>
     </row>
     <row r="5">
@@ -1050,11 +1050,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SFA</t>
+          <t>MNA</t>
         </is>
       </c>
       <c r="D5">
-        <v>-0.1714085268386553</v>
+        <v>0.1100423462376307</v>
       </c>
     </row>
     <row r="6">
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="D6">
-        <v>-0.01070921274748636</v>
+        <v>0.03054855870344431</v>
       </c>
     </row>
     <row r="7">
@@ -1090,11 +1090,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SBA</t>
+          <t>SFA</t>
         </is>
       </c>
       <c r="D7">
-        <v>-0.539775819361013</v>
+        <v>0.1561377875300283</v>
       </c>
     </row>
     <row r="8">
@@ -1114,7 +1114,7 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.3658900663975069</v>
+        <v>0.114880740491766</v>
       </c>
     </row>
     <row r="9">
@@ -1130,11 +1130,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MNA</t>
+          <t>SBA</t>
         </is>
       </c>
       <c r="D9">
-        <v>-0.1411031752698216</v>
+        <v>0.09490371731372613</v>
       </c>
     </row>
     <row r="10">
@@ -1150,11 +1150,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SFA</t>
+          <t>MNA</t>
         </is>
       </c>
       <c r="D10">
-        <v>-0.07726102776355934</v>
+        <v>0.07096416653308846</v>
       </c>
     </row>
     <row r="11">
@@ -1174,7 +1174,7 @@
         </is>
       </c>
       <c r="D11">
-        <v>-0.0648338438206799</v>
+        <v>0.07070330936600625</v>
       </c>
     </row>
     <row r="12">
@@ -1190,11 +1190,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CLO</t>
+          <t>CBA</t>
         </is>
       </c>
       <c r="D12">
-        <v>-0.03277177350708288</v>
+        <v>0.06157738984493608</v>
       </c>
     </row>
     <row r="13">
@@ -1210,11 +1210,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CBA</t>
+          <t>NPA</t>
         </is>
       </c>
       <c r="D13">
-        <v>-0.01306889623955078</v>
+        <v>0.04737678937004618</v>
       </c>
     </row>
     <row r="14">
@@ -1230,11 +1230,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CLW</t>
+          <t>CLO</t>
         </is>
       </c>
       <c r="D14">
-        <v>-0.009788893098518214</v>
+        <v>0.03035589708981247</v>
       </c>
     </row>
     <row r="15">
@@ -1254,7 +1254,7 @@
         </is>
       </c>
       <c r="D15">
-        <v>-0.005751282084491462</v>
+        <v>0.01163875675610103</v>
       </c>
     </row>
     <row r="16">
@@ -1270,11 +1270,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NPA</t>
+          <t>CLW</t>
         </is>
       </c>
       <c r="D16">
-        <v>-0.003399377583824192</v>
+        <v>0.007341281005929408</v>
       </c>
     </row>
     <row r="17">
@@ -1290,11 +1290,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CWA</t>
+          <t>CLW</t>
         </is>
       </c>
       <c r="D17">
-        <v>2.256654747560485</v>
+        <v>-0.7523654048344715</v>
       </c>
     </row>
     <row r="18">
@@ -1314,7 +1314,7 @@
         </is>
       </c>
       <c r="D18">
-        <v>0.5063438963342382</v>
+        <v>-0.7473476842632665</v>
       </c>
     </row>
     <row r="19">
@@ -1330,11 +1330,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CLW</t>
+          <t>CBA</t>
         </is>
       </c>
       <c r="D19">
-        <v>0.3545821888385765</v>
+        <v>-0.1923977926650353</v>
       </c>
     </row>
     <row r="20">
@@ -1350,11 +1350,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NPS</t>
+          <t>CWA</t>
         </is>
       </c>
       <c r="D20">
-        <v>-0.01744340581668084</v>
+        <v>0.05257654161349504</v>
       </c>
     </row>
     <row r="21">
@@ -1370,11 +1370,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CBA</t>
+          <t>NPS</t>
         </is>
       </c>
       <c r="D21">
-        <v>-0.01427663633473972</v>
+        <v>0.001609843569748014</v>
       </c>
     </row>
     <row r="22">
@@ -1390,11 +1390,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SBA</t>
+          <t>SDA</t>
         </is>
       </c>
       <c r="D22">
-        <v>-1.691392217391366</v>
+        <v>-0.07683544174617142</v>
       </c>
     </row>
     <row r="23">
@@ -1410,11 +1410,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SDA</t>
+          <t>SFA</t>
         </is>
       </c>
       <c r="D23">
-        <v>-0.7107522148430995</v>
+        <v>0.07396686033227058</v>
       </c>
     </row>
     <row r="24">
@@ -1430,11 +1430,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>LAA</t>
+          <t>SBA</t>
         </is>
       </c>
       <c r="D24">
-        <v>0.1999071764768559</v>
+        <v>0.02721233914968514</v>
       </c>
     </row>
     <row r="25">
@@ -1450,11 +1450,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MNA</t>
+          <t>MRA</t>
         </is>
       </c>
       <c r="D25">
-        <v>-0.1533462929501545</v>
+        <v>0.013627074536575</v>
       </c>
     </row>
     <row r="26">
@@ -1470,11 +1470,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SFA</t>
+          <t>MNA</t>
         </is>
       </c>
       <c r="D26">
-        <v>-0.04063532960466394</v>
+        <v>0.002945443620335463</v>
       </c>
     </row>
     <row r="27">
@@ -1490,11 +1490,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MRA</t>
+          <t>LAA</t>
         </is>
       </c>
       <c r="D27">
-        <v>-0.0003078460050210275</v>
+        <v>-0.0001388330315515995</v>
       </c>
     </row>
   </sheetData>
@@ -1545,11 +1545,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>sba_msqd</t>
+          <t>no_participation</t>
         </is>
       </c>
       <c r="D2">
-        <v>-0.7560665639444617</v>
+        <v>-0.8420217315116663</v>
       </c>
     </row>
     <row r="3">
@@ -1565,11 +1565,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>mna_nanc</t>
+          <t>sfa_msqd</t>
         </is>
       </c>
       <c r="D3">
-        <v>0.5698021565024837</v>
+        <v>0.2724593263718526</v>
       </c>
     </row>
     <row r="4">
@@ -1585,11 +1585,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>laa_cmck</t>
+          <t>sba_msqd</t>
         </is>
       </c>
       <c r="D4">
-        <v>0.4579007784699564</v>
+        <v>0.2032271369503229</v>
       </c>
     </row>
     <row r="5">
@@ -1605,11 +1605,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>mna_msqd</t>
+          <t>laa_msqd</t>
         </is>
       </c>
       <c r="D5">
-        <v>-0.3399194985642368</v>
+        <v>0.1513387059084461</v>
       </c>
     </row>
     <row r="6">
@@ -1625,11 +1625,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>sfa_msqd</t>
+          <t>mna_msqd</t>
         </is>
       </c>
       <c r="D6">
-        <v>-0.1977822582678736</v>
+        <v>0.1370454615735844</v>
       </c>
     </row>
     <row r="7">
@@ -1645,11 +1645,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>no_participation</t>
+          <t>laa_cmck</t>
         </is>
       </c>
       <c r="D7">
-        <v>0.1860081300837368</v>
+        <v>0.05664527424844093</v>
       </c>
     </row>
     <row r="8">
@@ -1665,11 +1665,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>laa_msqd</t>
+          <t>mra_msqd</t>
         </is>
       </c>
       <c r="D8">
-        <v>-0.1766127664180536</v>
+        <v>0.03054855870344431</v>
       </c>
     </row>
     <row r="9">
@@ -1685,11 +1685,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>laa_nanc</t>
+          <t>mna_nanc</t>
         </is>
       </c>
       <c r="D9">
-        <v>0.09550255275248458</v>
+        <v>-0.02240839087340463</v>
       </c>
     </row>
     <row r="10">
@@ -1705,11 +1705,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>laa_psdn</t>
+          <t>sba_cmck</t>
         </is>
       </c>
       <c r="D10">
-        <v>0.07652923779960441</v>
+        <v>0.02050002360060586</v>
       </c>
     </row>
     <row r="11">
@@ -1725,11 +1725,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>sba_cmck</t>
+          <t>laa_psdn</t>
         </is>
       </c>
       <c r="D11">
-        <v>0.06631891683449592</v>
+        <v>-0.01919521555717903</v>
       </c>
     </row>
     <row r="12">
@@ -1745,11 +1745,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>sfa_nanc</t>
+          <t>laa_nanc</t>
         </is>
       </c>
       <c r="D12">
-        <v>0.02637373142921821</v>
+        <v>0.01221772072058261</v>
       </c>
     </row>
     <row r="13">
@@ -1765,11 +1765,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>mra_msqd</t>
+          <t>sfa_nanc</t>
         </is>
       </c>
       <c r="D13">
-        <v>-0.01070921274748636</v>
+        <v>0.005355244519697435</v>
       </c>
     </row>
     <row r="14">
@@ -1785,11 +1785,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>laa_btna</t>
+          <t>mna_psdn</t>
         </is>
       </c>
       <c r="D14">
-        <v>0.001000341457436525</v>
+        <v>-0.004594724462549452</v>
       </c>
     </row>
     <row r="15">
@@ -1805,11 +1805,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>mna_psdn</t>
+          <t>laa_ytna</t>
         </is>
       </c>
       <c r="D15">
-        <v>0.0009888662267218927</v>
+        <v>-0.0007037137321094702</v>
       </c>
     </row>
     <row r="16">
@@ -1825,11 +1825,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>laa_ytna</t>
+          <t>laa_btna</t>
         </is>
       </c>
       <c r="D16">
-        <v>0.0006655883859682434</v>
+        <v>-0.000413676460070682</v>
       </c>
     </row>
     <row r="17">
@@ -1845,11 +1845,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>sba_msqd</t>
+          <t>no_participation</t>
         </is>
       </c>
       <c r="D17">
-        <v>-0.5746688889649826</v>
+        <v>-0.6658798353014417</v>
       </c>
     </row>
     <row r="18">
@@ -1865,11 +1865,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>no_participation</t>
+          <t>sfa_msqd</t>
         </is>
       </c>
       <c r="D18">
-        <v>0.5218640223310311</v>
+        <v>0.1561377875300283</v>
       </c>
     </row>
     <row r="19">
@@ -1889,7 +1889,7 @@
         </is>
       </c>
       <c r="D19">
-        <v>0.3661397697134933</v>
+        <v>0.08256122162610449</v>
       </c>
     </row>
     <row r="20">
@@ -1905,11 +1905,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>mna_msqd</t>
+          <t>sba_msqd</t>
         </is>
       </c>
       <c r="D20">
-        <v>-0.1411031752698216</v>
+        <v>0.08225817752646157</v>
       </c>
     </row>
     <row r="21">
@@ -1925,11 +1925,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>sfa_msqd</t>
+          <t>mna_msqd</t>
         </is>
       </c>
       <c r="D21">
-        <v>-0.07726102776355934</v>
+        <v>0.07096416653308846</v>
       </c>
     </row>
     <row r="22">
@@ -1949,7 +1949,7 @@
         </is>
       </c>
       <c r="D22">
-        <v>-0.05606697344989593</v>
+        <v>0.06787249998740512</v>
       </c>
     </row>
     <row r="23">
@@ -1965,11 +1965,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>laa_cmck</t>
+          <t>cba_msqd</t>
         </is>
       </c>
       <c r="D23">
-        <v>0.04898048448485778</v>
+        <v>0.06157738984493608</v>
       </c>
     </row>
     <row r="24">
@@ -1985,11 +1985,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>laa_msqd</t>
+          <t>npa_msqd</t>
         </is>
       </c>
       <c r="D24">
-        <v>-0.03901149954433705</v>
+        <v>0.04737678937004618</v>
       </c>
     </row>
     <row r="25">
@@ -2005,11 +2005,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>sba_cmck</t>
+          <t>laa_msqd</t>
         </is>
       </c>
       <c r="D25">
-        <v>0.0348930696039688</v>
+        <v>0.03776786500867598</v>
       </c>
     </row>
     <row r="26">
@@ -2029,7 +2029,7 @@
         </is>
       </c>
       <c r="D26">
-        <v>-0.03277177350708288</v>
+        <v>0.03035589708981247</v>
       </c>
     </row>
     <row r="27">
@@ -2045,11 +2045,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>cba_msqd</t>
+          <t>sba_cmck</t>
         </is>
       </c>
       <c r="D27">
-        <v>-0.01306889623955078</v>
+        <v>0.01264553978726438</v>
       </c>
     </row>
     <row r="28">
@@ -2065,11 +2065,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>laa_psdn</t>
+          <t>mra_msqd</t>
         </is>
       </c>
       <c r="D28">
-        <v>-0.01021868825650703</v>
+        <v>0.01163875675610103</v>
       </c>
     </row>
     <row r="29">
@@ -2085,11 +2085,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>cwa_psdn</t>
+          <t>clw_psdn</t>
         </is>
       </c>
       <c r="D29">
-        <v>-0.009024241991532726</v>
+        <v>0.008417062538223705</v>
       </c>
     </row>
     <row r="30">
@@ -2105,11 +2105,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>clw_psdn</t>
+          <t>laa_psdn</t>
         </is>
       </c>
       <c r="D30">
-        <v>-0.008641414367542219</v>
+        <v>-0.007779678193268092</v>
       </c>
     </row>
     <row r="31">
@@ -2125,11 +2125,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>mra_msqd</t>
+          <t>cwa_psdn</t>
         </is>
       </c>
       <c r="D31">
-        <v>-0.005751282084491462</v>
+        <v>0.004417171646896832</v>
       </c>
     </row>
     <row r="32">
@@ -2145,11 +2145,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>npa_msqd</t>
+          <t>laa_cmck</t>
         </is>
       </c>
       <c r="D32">
-        <v>-0.003399377583824192</v>
+        <v>0.002331332050253734</v>
       </c>
     </row>
     <row r="33">
@@ -2165,11 +2165,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>clw_dcrb</t>
+          <t>cwa_dcrb</t>
         </is>
       </c>
       <c r="D33">
-        <v>-0.001147478730975822</v>
+        <v>-0.001586362268295692</v>
       </c>
     </row>
     <row r="34">
@@ -2185,11 +2185,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>cwa_dcrb</t>
+          <t>clw_dcrb</t>
         </is>
       </c>
       <c r="D34">
-        <v>0.0002573716207488787</v>
+        <v>-0.00107578153229421</v>
       </c>
     </row>
     <row r="35">
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="D35">
-        <v>-3.085860790581874</v>
+        <v>1.637924496579535</v>
       </c>
     </row>
     <row r="36">
@@ -2225,11 +2225,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>cwa_nanc</t>
+          <t>clo_psdn</t>
         </is>
       </c>
       <c r="D36">
-        <v>2.094017663893924</v>
+        <v>-1.072495728393855</v>
       </c>
     </row>
     <row r="37">
@@ -2245,11 +2245,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>clo_psdn</t>
+          <t>clw_psdn</t>
         </is>
       </c>
       <c r="D37">
-        <v>0.4943516922697802</v>
+        <v>-0.9859824646046712</v>
       </c>
     </row>
     <row r="38">
@@ -2265,11 +2265,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>clw_psdn</t>
+          <t>cwa_nanc</t>
         </is>
       </c>
       <c r="D38">
-        <v>0.2611083450283574</v>
+        <v>0.6179572804272924</v>
       </c>
     </row>
     <row r="39">
@@ -2289,7 +2289,7 @@
         </is>
       </c>
       <c r="D39">
-        <v>0.1825612729756322</v>
+        <v>-0.5724884869565109</v>
       </c>
     </row>
     <row r="40">
@@ -2309,7 +2309,7 @@
         </is>
       </c>
       <c r="D40">
-        <v>0.0934738438102197</v>
+        <v>0.2336170597701993</v>
       </c>
     </row>
     <row r="41">
@@ -2329,7 +2329,7 @@
         </is>
       </c>
       <c r="D41">
-        <v>0.07907872135540975</v>
+        <v>0.2123376615616566</v>
       </c>
     </row>
     <row r="42">
@@ -2345,11 +2345,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>clo_cmck</t>
+          <t>cba_psdn</t>
         </is>
       </c>
       <c r="D42">
-        <v>-0.06708651729095158</v>
+        <v>-0.1923977926650353</v>
       </c>
     </row>
     <row r="43">
@@ -2365,11 +2365,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>cwa_dcrb</t>
+          <t>clo_cmck</t>
         </is>
       </c>
       <c r="D43">
-        <v>-0.01992418930907031</v>
+        <v>0.1128103825689321</v>
       </c>
     </row>
     <row r="44">
@@ -2385,11 +2385,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>nps_sock</t>
+          <t>cwa_dcrb</t>
         </is>
       </c>
       <c r="D44">
-        <v>-0.01744340581668084</v>
+        <v>0.007107748142713092</v>
       </c>
     </row>
     <row r="45">
@@ -2405,11 +2405,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>cba_psdn</t>
+          <t>nps_sock</t>
         </is>
       </c>
       <c r="D45">
-        <v>-0.01427663633473972</v>
+        <v>0.001609843569748014</v>
       </c>
     </row>
     <row r="46">
@@ -2425,11 +2425,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>no_participation</t>
+          <t>sba_msqd</t>
         </is>
       </c>
       <c r="D46">
-        <v>2.396526724317449</v>
+        <v>0.09627428973474056</v>
       </c>
     </row>
     <row r="47">
@@ -2445,11 +2445,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>sba_nanc</t>
+          <t>laa_jmck</t>
         </is>
       </c>
       <c r="D47">
-        <v>-1.390995382749066</v>
+        <v>-0.09457445857733016</v>
       </c>
     </row>
     <row r="48">
@@ -2469,7 +2469,7 @@
         </is>
       </c>
       <c r="D48">
-        <v>-0.7107522148430995</v>
+        <v>-0.07683544174617142</v>
       </c>
     </row>
     <row r="49">
@@ -2485,11 +2485,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>sba_msqd</t>
+          <t>sfa_msqd</t>
         </is>
       </c>
       <c r="D49">
-        <v>-0.3003968346423025</v>
+        <v>0.07396686033227058</v>
       </c>
     </row>
     <row r="50">
@@ -2505,11 +2505,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>laa_cmck</t>
+          <t>sba_nanc</t>
         </is>
       </c>
       <c r="D50">
-        <v>0.289735133557021</v>
+        <v>-0.06906195058505558</v>
       </c>
     </row>
     <row r="51">
@@ -2525,11 +2525,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>mna_nanc</t>
+          <t>laa_msqd</t>
         </is>
       </c>
       <c r="D51">
-        <v>-0.09144076474605789</v>
+        <v>0.05819298844475362</v>
       </c>
     </row>
     <row r="52">
@@ -2545,11 +2545,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>mna_cmck</t>
+          <t>mna_jmck</t>
         </is>
       </c>
       <c r="D52">
-        <v>0.07953392052381467</v>
+        <v>-0.05765542427587835</v>
       </c>
     </row>
     <row r="53">
@@ -2565,11 +2565,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>mna_jmck</t>
+          <t>mna_msqd</t>
         </is>
       </c>
       <c r="D53">
-        <v>-0.07931248134409519</v>
+        <v>0.05478821486878706</v>
       </c>
     </row>
     <row r="54">
@@ -2585,11 +2585,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>mna_msqd</t>
+          <t>no_participation</t>
         </is>
       </c>
       <c r="D54">
-        <v>-0.06285061966377972</v>
+        <v>-0.0407774428611507</v>
       </c>
     </row>
     <row r="55">
@@ -2605,11 +2605,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>laa_msqd</t>
+          <t>laa_cmck</t>
         </is>
       </c>
       <c r="D55">
-        <v>-0.04921143117368257</v>
+        <v>0.03113734444718111</v>
       </c>
     </row>
     <row r="56">
@@ -2625,11 +2625,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>sfa_msqd</t>
+          <t>mra_msqd</t>
         </is>
       </c>
       <c r="D56">
-        <v>-0.04063532960466394</v>
+        <v>0.013627074536575</v>
       </c>
     </row>
     <row r="57">
@@ -2649,7 +2649,7 @@
         </is>
       </c>
       <c r="D57">
-        <v>-0.02522602199394857</v>
+        <v>0.005105292653843907</v>
       </c>
     </row>
     <row r="58">
@@ -2665,11 +2665,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>laa_jmck</t>
+          <t>mna_cmck</t>
         </is>
       </c>
       <c r="D58">
-        <v>-0.01539050391253425</v>
+        <v>0.004251471022250972</v>
       </c>
     </row>
     <row r="59">
@@ -2685,11 +2685,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>mna_psdn</t>
+          <t>mna_nanc</t>
         </is>
       </c>
       <c r="D59">
-        <v>0.0007236522799639392</v>
+        <v>0.001516861237463654</v>
       </c>
     </row>
     <row r="60">
@@ -2705,11 +2705,11 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>mra_msqd</t>
+          <t>mna_psdn</t>
         </is>
       </c>
       <c r="D60">
-        <v>-0.0003078460050210275</v>
+        <v>4.432076771207624E-05</v>
       </c>
     </row>
   </sheetData>
@@ -2778,7 +2778,7 @@
         <v>41275</v>
       </c>
       <c r="C2" s="2">
-        <v>42004</v>
+        <v>41639</v>
       </c>
       <c r="D2">
         <v>2016</v>

--- a/Participation/R/output/scenarios/scenario_heatwave_delta_pp.xlsx
+++ b/Participation/R/output/scenarios/scenario_heatwave_delta_pp.xlsx
@@ -404,7 +404,7 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.8420217315116635</v>
+        <v>0.9421709697001179</v>
       </c>
     </row>
     <row r="3">
@@ -424,7 +424,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.6658798353014417</v>
+        <v>0.7327849796379695</v>
       </c>
     </row>
     <row r="4">
@@ -444,7 +444,7 @@
         </is>
       </c>
       <c r="D4">
-        <v>-1.637924496579532</v>
+        <v>-0.02613198284115159</v>
       </c>
     </row>
     <row r="5">
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.04077744286114376</v>
+        <v>-0.280852474533437</v>
       </c>
     </row>
   </sheetData>
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.7946191895076504</v>
+        <v>0.9049092258186411</v>
       </c>
     </row>
     <row r="3">
@@ -535,11 +535,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CMCK</t>
+          <t>NANC</t>
         </is>
       </c>
       <c r="D3">
-        <v>0.07714529784904681</v>
+        <v>0.1547119892895658</v>
       </c>
     </row>
     <row r="4">
@@ -555,11 +555,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PSDN</t>
+          <t>CMCK</t>
         </is>
       </c>
       <c r="D4">
-        <v>-0.02378994001972857</v>
+        <v>-0.1213536010917862</v>
       </c>
     </row>
     <row r="5">
@@ -575,11 +575,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NANC</t>
+          <t>PSDN</t>
         </is>
       </c>
       <c r="D5">
-        <v>-0.004835425633124488</v>
+        <v>0.005229001775155107</v>
       </c>
     </row>
     <row r="6">
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="D6">
-        <v>-0.0007037137321094702</v>
+        <v>-0.0008182362390976193</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="D7">
-        <v>-0.000413676460070682</v>
+        <v>-0.0005074098523603378</v>
       </c>
     </row>
     <row r="8">
@@ -635,11 +635,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MSQD</t>
+          <t>NANC</t>
         </is>
       </c>
       <c r="D8">
-        <v>0.4677209325693377</v>
+        <v>0.4727805569820649</v>
       </c>
     </row>
     <row r="9">
@@ -655,11 +655,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NANC</t>
+          <t>MSQD</t>
         </is>
       </c>
       <c r="D9">
-        <v>0.08256122162610449</v>
+        <v>0.3663842725684111</v>
       </c>
     </row>
     <row r="10">
@@ -675,11 +675,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ALBC</t>
+          <t>PSDN</t>
         </is>
       </c>
       <c r="D10">
-        <v>0.06787249998740512</v>
+        <v>-0.06336972019077153</v>
       </c>
     </row>
     <row r="11">
@@ -695,11 +695,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PSDN</t>
+          <t>CMCK</t>
         </is>
       </c>
       <c r="D11">
-        <v>0.03541045308166485</v>
+        <v>-0.05377985247061691</v>
       </c>
     </row>
     <row r="12">
@@ -715,11 +715,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CMCK</t>
+          <t>ALBC</t>
         </is>
       </c>
       <c r="D12">
-        <v>0.01497687183751803</v>
+        <v>0.01316279256019896</v>
       </c>
     </row>
     <row r="13">
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="D13">
-        <v>-0.002662143800589902</v>
+        <v>-0.002393069811317547</v>
       </c>
     </row>
     <row r="14">
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="D14">
-        <v>-2.823364472620073</v>
+        <v>-1.142098867568885</v>
       </c>
     </row>
     <row r="15">
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="D15">
-        <v>1.063912001759148</v>
+        <v>1.062019665921264</v>
       </c>
     </row>
     <row r="16">
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="D16">
-        <v>0.1128103825689321</v>
+        <v>0.05385950549319377</v>
       </c>
     </row>
     <row r="17">
@@ -815,11 +815,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DCRB</t>
+          <t>SOCK</t>
         </is>
       </c>
       <c r="D17">
-        <v>0.007107748142713092</v>
+        <v>0.0001488351066892364</v>
       </c>
     </row>
     <row r="18">
@@ -835,11 +835,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SOCK</t>
+          <t>DCRB</t>
         </is>
       </c>
       <c r="D18">
-        <v>0.001609843569748014</v>
+        <v>-6.112179341591882E-05</v>
       </c>
     </row>
     <row r="19">
@@ -855,11 +855,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MSQD</t>
+          <t>NANC</t>
         </is>
       </c>
       <c r="D19">
-        <v>0.2968494279171272</v>
+        <v>-0.6128126382335274</v>
       </c>
     </row>
     <row r="20">
@@ -875,11 +875,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>JMCK</t>
+          <t>MSQD</t>
         </is>
       </c>
       <c r="D20">
-        <v>-0.1522298828532085</v>
+        <v>0.474591958153333</v>
       </c>
     </row>
     <row r="21">
@@ -895,11 +895,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NANC</t>
+          <t>JMCK</t>
         </is>
       </c>
       <c r="D21">
-        <v>-0.1443805310937636</v>
+        <v>-0.1319751320540975</v>
       </c>
     </row>
     <row r="22">
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="D22">
-        <v>0.03538881546943208</v>
+        <v>-0.02819214162455433</v>
       </c>
     </row>
     <row r="23">
@@ -939,7 +939,7 @@
         </is>
       </c>
       <c r="D23">
-        <v>0.005149613421555951</v>
+        <v>0.01753547922540991</v>
       </c>
     </row>
   </sheetData>
@@ -990,11 +990,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SFA</t>
+          <t>SBA</t>
         </is>
       </c>
       <c r="D2">
-        <v>0.27781457089155</v>
+        <v>0.4528736655240895</v>
       </c>
     </row>
     <row r="3">
@@ -1010,11 +1010,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SBA</t>
+          <t>LAA</t>
         </is>
       </c>
       <c r="D3">
-        <v>0.2237271605509288</v>
+        <v>0.2292284133877519</v>
       </c>
     </row>
     <row r="4">
@@ -1030,11 +1030,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LAA</t>
+          <t>MNA</t>
         </is>
       </c>
       <c r="D4">
-        <v>0.1998890951281106</v>
+        <v>0.1266755304374562</v>
       </c>
     </row>
     <row r="5">
@@ -1050,11 +1050,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MNA</t>
+          <t>SFA</t>
         </is>
       </c>
       <c r="D5">
-        <v>0.1100423462376307</v>
+        <v>0.08715759986607802</v>
       </c>
     </row>
     <row r="6">
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.03054855870344431</v>
+        <v>0.04623576048474187</v>
       </c>
     </row>
     <row r="7">
@@ -1090,11 +1090,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SFA</t>
+          <t>LAA</t>
         </is>
       </c>
       <c r="D7">
-        <v>0.1561377875300283</v>
+        <v>0.4977860624354905</v>
       </c>
     </row>
     <row r="8">
@@ -1110,11 +1110,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LAA</t>
+          <t>SBA</t>
         </is>
       </c>
       <c r="D8">
-        <v>0.114880740491766</v>
+        <v>0.1817352796040259</v>
       </c>
     </row>
     <row r="9">
@@ -1130,11 +1130,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SBA</t>
+          <t>SFA</t>
         </is>
       </c>
       <c r="D9">
-        <v>0.09490371731372613</v>
+        <v>0.03700022704013449</v>
       </c>
     </row>
     <row r="10">
@@ -1150,11 +1150,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MNA</t>
+          <t>CLO</t>
         </is>
       </c>
       <c r="D10">
-        <v>0.07096416653308846</v>
+        <v>-0.03699056400370167</v>
       </c>
     </row>
     <row r="11">
@@ -1170,11 +1170,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CWA</t>
+          <t>CBA</t>
         </is>
       </c>
       <c r="D11">
-        <v>0.07070330936600625</v>
+        <v>0.01866784980376039</v>
       </c>
     </row>
     <row r="12">
@@ -1190,11 +1190,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CBA</t>
+          <t>MRA</t>
         </is>
       </c>
       <c r="D12">
-        <v>0.06157738984493608</v>
+        <v>0.01727065980935616</v>
       </c>
     </row>
     <row r="13">
@@ -1214,7 +1214,7 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.04737678937004618</v>
+        <v>0.01627317167585812</v>
       </c>
     </row>
     <row r="14">
@@ -1230,11 +1230,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CLO</t>
+          <t>CLW</t>
         </is>
       </c>
       <c r="D14">
-        <v>0.03035589708981247</v>
+        <v>-0.01309245721237938</v>
       </c>
     </row>
     <row r="15">
@@ -1250,11 +1250,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MRA</t>
+          <t>CWA</t>
         </is>
       </c>
       <c r="D15">
-        <v>0.01163875675610103</v>
+        <v>0.007858676081409256</v>
       </c>
     </row>
     <row r="16">
@@ -1270,11 +1270,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CLW</t>
+          <t>MNA</t>
         </is>
       </c>
       <c r="D16">
-        <v>0.007341281005929408</v>
+        <v>0.006276074404015092</v>
       </c>
     </row>
     <row r="17">
@@ -1290,11 +1290,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CLW</t>
+          <t>CWA</t>
         </is>
       </c>
       <c r="D17">
-        <v>-0.7523654048344715</v>
+        <v>0.4780248904058204</v>
       </c>
     </row>
     <row r="18">
@@ -1314,7 +1314,7 @@
         </is>
       </c>
       <c r="D18">
-        <v>-0.7473476842632665</v>
+        <v>-0.1782540532233215</v>
       </c>
     </row>
     <row r="19">
@@ -1330,11 +1330,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CBA</t>
+          <t>CLW</t>
         </is>
       </c>
       <c r="D19">
-        <v>-0.1923977926650353</v>
+        <v>-0.1710185062700306</v>
       </c>
     </row>
     <row r="20">
@@ -1350,11 +1350,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CWA</t>
+          <t>CBA</t>
         </is>
       </c>
       <c r="D20">
-        <v>0.05257654161349504</v>
+        <v>-0.1550331488603106</v>
       </c>
     </row>
     <row r="21">
@@ -1374,7 +1374,7 @@
         </is>
       </c>
       <c r="D21">
-        <v>0.001609843569748014</v>
+        <v>0.0001488351066892364</v>
       </c>
     </row>
     <row r="22">
@@ -1390,11 +1390,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SDA</t>
+          <t>SBA</t>
         </is>
       </c>
       <c r="D22">
-        <v>-0.07683544174617142</v>
+        <v>-0.2120801500476905</v>
       </c>
     </row>
     <row r="23">
@@ -1410,11 +1410,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SFA</t>
+          <t>SDA</t>
         </is>
       </c>
       <c r="D23">
-        <v>0.07396686033227058</v>
+        <v>-0.1198687262514141</v>
       </c>
     </row>
     <row r="24">
@@ -1430,11 +1430,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SBA</t>
+          <t>SFA</t>
         </is>
       </c>
       <c r="D24">
-        <v>0.02721233914968514</v>
+        <v>0.03193976495681267</v>
       </c>
     </row>
     <row r="25">
@@ -1454,7 +1454,7 @@
         </is>
       </c>
       <c r="D25">
-        <v>0.013627074536575</v>
+        <v>0.02270484187121922</v>
       </c>
     </row>
     <row r="26">
@@ -1474,7 +1474,7 @@
         </is>
       </c>
       <c r="D26">
-        <v>0.002945443620335463</v>
+        <v>-0.02172972990478056</v>
       </c>
     </row>
     <row r="27">
@@ -1494,7 +1494,7 @@
         </is>
       </c>
       <c r="D27">
-        <v>-0.0001388330315515995</v>
+        <v>0.01818152484241685</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1549,7 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.8420217315116663</v>
+        <v>-0.9421709697001179</v>
       </c>
     </row>
     <row r="3">
@@ -1565,11 +1565,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>sfa_msqd</t>
+          <t>sba_msqd</t>
         </is>
       </c>
       <c r="D3">
-        <v>0.2724593263718526</v>
+        <v>0.458851722468085</v>
       </c>
     </row>
     <row r="4">
@@ -1585,11 +1585,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>sba_msqd</t>
+          <t>laa_msqd</t>
         </is>
       </c>
       <c r="D4">
-        <v>0.2032271369503229</v>
+        <v>0.3031482487779444</v>
       </c>
     </row>
     <row r="5">
@@ -1605,11 +1605,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>laa_msqd</t>
+          <t>laa_cmck</t>
         </is>
       </c>
       <c r="D5">
-        <v>0.1513387059084461</v>
+        <v>-0.1153755441477907</v>
       </c>
     </row>
     <row r="6">
@@ -1625,11 +1625,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>mna_msqd</t>
+          <t>mna_nanc</t>
         </is>
       </c>
       <c r="D6">
-        <v>0.1370454615735844</v>
+        <v>0.09665713444525049</v>
       </c>
     </row>
     <row r="7">
@@ -1645,11 +1645,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>laa_cmck</t>
+          <t>sfa_msqd</t>
         </is>
       </c>
       <c r="D7">
-        <v>0.05664527424844093</v>
+        <v>0.07021350512087746</v>
       </c>
     </row>
     <row r="8">
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.03054855870344431</v>
+        <v>0.04623576048474187</v>
       </c>
     </row>
     <row r="9">
@@ -1685,11 +1685,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>mna_nanc</t>
+          <t>laa_nanc</t>
         </is>
       </c>
       <c r="D9">
-        <v>-0.02240839087340463</v>
+        <v>0.04111076009911472</v>
       </c>
     </row>
     <row r="10">
@@ -1705,11 +1705,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>sba_cmck</t>
+          <t>mna_msqd</t>
         </is>
       </c>
       <c r="D10">
-        <v>0.02050002360060586</v>
+        <v>0.02645998896699184</v>
       </c>
     </row>
     <row r="11">
@@ -1725,11 +1725,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>laa_psdn</t>
+          <t>sfa_nanc</t>
         </is>
       </c>
       <c r="D11">
-        <v>-0.01919521555717903</v>
+        <v>0.01694409474520059</v>
       </c>
     </row>
     <row r="12">
@@ -1745,11 +1745,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>laa_nanc</t>
+          <t>sba_cmck</t>
         </is>
       </c>
       <c r="D12">
-        <v>0.01221772072058261</v>
+        <v>-0.005978056943995434</v>
       </c>
     </row>
     <row r="13">
@@ -1765,11 +1765,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>sfa_nanc</t>
+          <t>mna_psdn</t>
         </is>
       </c>
       <c r="D13">
-        <v>0.005355244519697435</v>
+        <v>0.003558407025213524</v>
       </c>
     </row>
     <row r="14">
@@ -1785,11 +1785,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>mna_psdn</t>
+          <t>laa_psdn</t>
         </is>
       </c>
       <c r="D14">
-        <v>-0.004594724462549452</v>
+        <v>0.001670594749941627</v>
       </c>
     </row>
     <row r="15">
@@ -1809,7 +1809,7 @@
         </is>
       </c>
       <c r="D15">
-        <v>-0.0007037137321094702</v>
+        <v>-0.0008182362390976193</v>
       </c>
     </row>
     <row r="16">
@@ -1829,7 +1829,7 @@
         </is>
       </c>
       <c r="D16">
-        <v>-0.000413676460070682</v>
+        <v>-0.0005074098523603378</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         </is>
       </c>
       <c r="D17">
-        <v>-0.6658798353014417</v>
+        <v>-0.7327849796379682</v>
       </c>
     </row>
     <row r="18">
@@ -1865,11 +1865,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>sfa_msqd</t>
+          <t>laa_nanc</t>
         </is>
       </c>
       <c r="D18">
-        <v>0.1561377875300283</v>
+        <v>0.4727805569820649</v>
       </c>
     </row>
     <row r="19">
@@ -1885,11 +1885,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>laa_nanc</t>
+          <t>sba_msqd</t>
         </is>
       </c>
       <c r="D19">
-        <v>0.08256122162610449</v>
+        <v>0.1921308246427844</v>
       </c>
     </row>
     <row r="20">
@@ -1905,11 +1905,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>sba_msqd</t>
+          <t>laa_msqd</t>
         </is>
       </c>
       <c r="D20">
-        <v>0.08225817752646157</v>
+        <v>0.07876546519250213</v>
       </c>
     </row>
     <row r="21">
@@ -1925,11 +1925,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>mna_msqd</t>
+          <t>laa_cmck</t>
         </is>
       </c>
       <c r="D21">
-        <v>0.07096416653308846</v>
+        <v>-0.04338430743185823</v>
       </c>
     </row>
     <row r="22">
@@ -1945,11 +1945,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>cwa_albc</t>
+          <t>sfa_msqd</t>
         </is>
       </c>
       <c r="D22">
-        <v>0.06787249998740512</v>
+        <v>0.03700022704013449</v>
       </c>
     </row>
     <row r="23">
@@ -1965,11 +1965,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>cba_msqd</t>
+          <t>clo_psdn</t>
         </is>
       </c>
       <c r="D23">
-        <v>0.06157738984493608</v>
+        <v>-0.03699056400370167</v>
       </c>
     </row>
     <row r="24">
@@ -1985,11 +1985,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>npa_msqd</t>
+          <t>cba_msqd</t>
         </is>
       </c>
       <c r="D24">
-        <v>0.04737678937004618</v>
+        <v>0.01866784980376039</v>
       </c>
     </row>
     <row r="25">
@@ -2005,11 +2005,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>laa_msqd</t>
+          <t>mra_msqd</t>
         </is>
       </c>
       <c r="D25">
-        <v>0.03776786500867598</v>
+        <v>0.01727065980935616</v>
       </c>
     </row>
     <row r="26">
@@ -2025,11 +2025,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>clo_psdn</t>
+          <t>npa_msqd</t>
         </is>
       </c>
       <c r="D26">
-        <v>0.03035589708981247</v>
+        <v>0.01627317167585812</v>
       </c>
     </row>
     <row r="27">
@@ -2045,11 +2045,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>sba_cmck</t>
+          <t>cwa_albc</t>
         </is>
       </c>
       <c r="D27">
-        <v>0.01264553978726438</v>
+        <v>0.01316279256019896</v>
       </c>
     </row>
     <row r="28">
@@ -2065,11 +2065,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>mra_msqd</t>
+          <t>clw_psdn</t>
         </is>
       </c>
       <c r="D28">
-        <v>0.01163875675610103</v>
+        <v>-0.01212125554491293</v>
       </c>
     </row>
     <row r="29">
@@ -2085,11 +2085,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>clw_psdn</t>
+          <t>sba_cmck</t>
         </is>
       </c>
       <c r="D29">
-        <v>0.008417062538223705</v>
+        <v>-0.01039554503875866</v>
       </c>
     </row>
     <row r="30">
@@ -2109,7 +2109,7 @@
         </is>
       </c>
       <c r="D30">
-        <v>-0.007779678193268092</v>
+        <v>-0.01037565230721823</v>
       </c>
     </row>
     <row r="31">
@@ -2125,11 +2125,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>cwa_psdn</t>
+          <t>mna_msqd</t>
         </is>
       </c>
       <c r="D31">
-        <v>0.004417171646896832</v>
+        <v>0.006276074404015092</v>
       </c>
     </row>
     <row r="32">
@@ -2145,11 +2145,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>laa_cmck</t>
+          <t>cwa_psdn</t>
         </is>
       </c>
       <c r="D32">
-        <v>0.002331332050253734</v>
+        <v>-0.003882248334938611</v>
       </c>
     </row>
     <row r="33">
@@ -2169,7 +2169,7 @@
         </is>
       </c>
       <c r="D33">
-        <v>-0.001586362268295692</v>
+        <v>-0.001421868143851139</v>
       </c>
     </row>
     <row r="34">
@@ -2189,7 +2189,7 @@
         </is>
       </c>
       <c r="D34">
-        <v>-0.00107578153229421</v>
+        <v>-0.0009712016674664299</v>
       </c>
     </row>
     <row r="35">
@@ -2205,11 +2205,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>no_participation</t>
+          <t>cwa_nanc</t>
         </is>
       </c>
       <c r="D35">
-        <v>1.637924496579535</v>
+        <v>0.6850272417382699</v>
       </c>
     </row>
     <row r="36">
@@ -2229,7 +2229,7 @@
         </is>
       </c>
       <c r="D36">
-        <v>-1.072495728393855</v>
+        <v>-0.4037476233460291</v>
       </c>
     </row>
     <row r="37">
@@ -2249,7 +2249,7 @@
         </is>
       </c>
       <c r="D37">
-        <v>-0.9859824646046712</v>
+        <v>-0.3763768658235113</v>
       </c>
     </row>
     <row r="38">
@@ -2265,11 +2265,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>cwa_nanc</t>
+          <t>cwa_psdn</t>
         </is>
       </c>
       <c r="D38">
-        <v>0.6179572804272924</v>
+        <v>-0.2069412295390337</v>
       </c>
     </row>
     <row r="39">
@@ -2285,11 +2285,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>cwa_psdn</t>
+          <t>clw_nanc</t>
         </is>
       </c>
       <c r="D39">
-        <v>-0.5724884869565109</v>
+        <v>0.2053583595534808</v>
       </c>
     </row>
     <row r="40">
@@ -2305,11 +2305,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>clw_nanc</t>
+          <t>clo_nanc</t>
         </is>
       </c>
       <c r="D40">
-        <v>0.2336170597701993</v>
+        <v>0.1716340646295133</v>
       </c>
     </row>
     <row r="41">
@@ -2325,11 +2325,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>clo_nanc</t>
+          <t>cba_psdn</t>
         </is>
       </c>
       <c r="D41">
-        <v>0.2123376615616566</v>
+        <v>-0.1550331488603106</v>
       </c>
     </row>
     <row r="42">
@@ -2345,11 +2345,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>cba_psdn</t>
+          <t>clo_cmck</t>
         </is>
       </c>
       <c r="D42">
-        <v>-0.1923977926650353</v>
+        <v>0.05385950549319377</v>
       </c>
     </row>
     <row r="43">
@@ -2365,11 +2365,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>clo_cmck</t>
+          <t>no_participation</t>
         </is>
       </c>
       <c r="D43">
-        <v>0.1128103825689321</v>
+        <v>0.02613198284115992</v>
       </c>
     </row>
     <row r="44">
@@ -2385,11 +2385,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>cwa_dcrb</t>
+          <t>nps_sock</t>
         </is>
       </c>
       <c r="D44">
-        <v>0.007107748142713092</v>
+        <v>0.0001488351066892364</v>
       </c>
     </row>
     <row r="45">
@@ -2405,11 +2405,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>nps_sock</t>
+          <t>cwa_dcrb</t>
         </is>
       </c>
       <c r="D45">
-        <v>0.001609843569748014</v>
+        <v>-6.112179341591882E-05</v>
       </c>
     </row>
     <row r="46">
@@ -2425,11 +2425,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>sba_msqd</t>
+          <t>sba_nanc</t>
         </is>
       </c>
       <c r="D46">
-        <v>0.09627428973474056</v>
+        <v>-0.4775557295328728</v>
       </c>
     </row>
     <row r="47">
@@ -2445,11 +2445,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>laa_jmck</t>
+          <t>no_participation</t>
         </is>
       </c>
       <c r="D47">
-        <v>-0.09457445857733016</v>
+        <v>0.2808524745334329</v>
       </c>
     </row>
     <row r="48">
@@ -2465,11 +2465,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>sda_nanc</t>
+          <t>sba_msqd</t>
         </is>
       </c>
       <c r="D48">
-        <v>-0.07683544174617142</v>
+        <v>0.265475579485182</v>
       </c>
     </row>
     <row r="49">
@@ -2485,11 +2485,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>sfa_msqd</t>
+          <t>sda_nanc</t>
         </is>
       </c>
       <c r="D49">
-        <v>0.07396686033227058</v>
+        <v>-0.1198687262514141</v>
       </c>
     </row>
     <row r="50">
@@ -2505,11 +2505,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>sba_nanc</t>
+          <t>laa_msqd</t>
         </is>
       </c>
       <c r="D50">
-        <v>-0.06906195058505558</v>
+        <v>0.1173016694950766</v>
       </c>
     </row>
     <row r="51">
@@ -2525,11 +2525,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>laa_msqd</t>
+          <t>laa_jmck</t>
         </is>
       </c>
       <c r="D51">
-        <v>0.05819298844475362</v>
+        <v>-0.0884445449508667</v>
       </c>
     </row>
     <row r="52">
@@ -2549,7 +2549,7 @@
         </is>
       </c>
       <c r="D52">
-        <v>-0.05765542427587835</v>
+        <v>-0.04353058710323084</v>
       </c>
     </row>
     <row r="53">
@@ -2569,7 +2569,7 @@
         </is>
       </c>
       <c r="D53">
-        <v>0.05478821486878706</v>
+        <v>0.0371701023450419</v>
       </c>
     </row>
     <row r="54">
@@ -2585,11 +2585,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>no_participation</t>
+          <t>sfa_msqd</t>
         </is>
       </c>
       <c r="D54">
-        <v>-0.0407774428611507</v>
+        <v>0.03193976495681267</v>
       </c>
     </row>
     <row r="55">
@@ -2609,7 +2609,7 @@
         </is>
       </c>
       <c r="D55">
-        <v>0.03113734444718111</v>
+        <v>-0.02600998332748126</v>
       </c>
     </row>
     <row r="56">
@@ -2629,7 +2629,7 @@
         </is>
       </c>
       <c r="D56">
-        <v>0.013627074536575</v>
+        <v>0.02270484187121922</v>
       </c>
     </row>
     <row r="57">
@@ -2645,11 +2645,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>laa_psdn</t>
+          <t>mna_nanc</t>
         </is>
       </c>
       <c r="D57">
-        <v>0.005105292653843907</v>
+        <v>-0.01538818244924041</v>
       </c>
     </row>
     <row r="58">
@@ -2665,11 +2665,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>mna_cmck</t>
+          <t>laa_psdn</t>
         </is>
       </c>
       <c r="D58">
-        <v>0.004251471022250972</v>
+        <v>0.01533438362568825</v>
       </c>
     </row>
     <row r="59">
@@ -2685,11 +2685,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>mna_nanc</t>
+          <t>mna_psdn</t>
         </is>
       </c>
       <c r="D59">
-        <v>0.001516861237463654</v>
+        <v>0.002201095599721709</v>
       </c>
     </row>
     <row r="60">
@@ -2705,11 +2705,11 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>mna_psdn</t>
+          <t>mna_cmck</t>
         </is>
       </c>
       <c r="D60">
-        <v>4.432076771207624E-05</v>
+        <v>-0.002182158297073098</v>
       </c>
     </row>
   </sheetData>
